--- a/Banco Central/4/Tipo de Cambio Multilateral Chile 2021 - Diaria.xlsx
+++ b/Banco Central/4/Tipo de Cambio Multilateral Chile 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2851,6 +2863,62 @@
         <v>99.09</v>
       </c>
     </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>111.48</v>
+      </c>
+      <c r="C146">
+        <v>181.75</v>
+      </c>
+      <c r="D146">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>111.28</v>
+      </c>
+      <c r="C147">
+        <v>181.86</v>
+      </c>
+      <c r="D147">
+        <v>98.31999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>111.55</v>
+      </c>
+      <c r="C148">
+        <v>182.33</v>
+      </c>
+      <c r="D148">
+        <v>98.59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>113.38</v>
+      </c>
+      <c r="C149">
+        <v>185.44</v>
+      </c>
+      <c r="D149">
+        <v>100.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/4/Tipo de Cambio Multilateral Chile 2021 - Diaria.xlsx
+++ b/Banco Central/4/Tipo de Cambio Multilateral Chile 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Serie</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2919,6 +2922,20 @@
         <v>100.19</v>
       </c>
     </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>113.51</v>
+      </c>
+      <c r="C150">
+        <v>185.46</v>
+      </c>
+      <c r="D150">
+        <v>100.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
